--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3145.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3145.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.186734707729995</v>
+        <v>1.00942850112915</v>
       </c>
       <c r="B1">
-        <v>2.683414754537186</v>
+        <v>1.348303079605103</v>
       </c>
       <c r="C1">
-        <v>3.690472102114196</v>
+        <v>2.179309844970703</v>
       </c>
       <c r="D1">
-        <v>4.265621264271775</v>
+        <v>4.447084426879883</v>
       </c>
       <c r="E1">
-        <v>1.320097197361375</v>
+        <v>2.048956155776978</v>
       </c>
     </row>
   </sheetData>
